--- a/outputs/c/_cloth_both.xlsx
+++ b/outputs/c/_cloth_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="130">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -405,7 +402,13 @@
     <t>orange</t>
   </si>
   <si>
-    <t>uniq</t>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="A5:P6"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -770,19 +773,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>0</v>
@@ -791,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>2</v>
@@ -809,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -820,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>211</v>
@@ -832,37 +835,37 @@
         <v>2526</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="2">
         <v>6</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T2" s="2">
         <v>211</v>
@@ -874,13 +877,13 @@
         <v>2526</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -891,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>416</v>
@@ -903,34 +906,34 @@
         <v>3562</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q3" s="2">
         <v>14</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
@@ -945,13 +948,13 @@
         <v>3562</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -962,7 +965,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
@@ -974,34 +977,34 @@
         <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="2">
         <v>15</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T4" s="2">
         <v>6</v>
@@ -1013,13 +1016,13 @@
         <v>50</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="Y4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1030,7 +1033,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>453</v>
@@ -1042,34 +1045,34 @@
         <v>2328</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="2">
         <v>15</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T5" s="2">
         <v>7</v>
@@ -1081,13 +1084,13 @@
         <v>50</v>
       </c>
       <c r="W5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="Y5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1098,7 +1101,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>647</v>
@@ -1110,31 +1113,31 @@
         <v>5770</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="2">
         <v>17</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
@@ -1149,13 +1152,13 @@
         <v>5770</v>
       </c>
       <c r="W6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="Y6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1166,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>483</v>
@@ -1178,34 +1181,34 @@
         <v>3868</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="2">
         <v>19</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -1220,13 +1223,13 @@
         <v>2406</v>
       </c>
       <c r="W7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="Y7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1237,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>42</v>
@@ -1249,31 +1252,31 @@
         <v>264</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="2">
         <v>20</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
@@ -1288,13 +1291,13 @@
         <v>264</v>
       </c>
       <c r="W8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="Y8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1305,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>134</v>
@@ -1317,31 +1320,31 @@
         <v>2174</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q9" s="2">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
@@ -1356,13 +1359,13 @@
         <v>432</v>
       </c>
       <c r="W9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="Y9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1373,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>285</v>
@@ -1385,37 +1388,37 @@
         <v>4204</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="2">
         <v>6</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T10" s="2">
         <v>275</v>
@@ -1427,13 +1430,13 @@
         <v>4050</v>
       </c>
       <c r="W10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X10" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="Y10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1">
         <v>491</v>
@@ -1456,34 +1459,34 @@
         <v>1880</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="2">
         <v>13</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
@@ -1498,13 +1501,13 @@
         <v>188</v>
       </c>
       <c r="W11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="Y11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1515,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>367</v>
@@ -1527,37 +1530,37 @@
         <v>3008</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q12" s="2">
         <v>14</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -1572,13 +1575,13 @@
         <v>1796</v>
       </c>
       <c r="W12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="X12" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="Y12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1589,7 +1592,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1">
         <v>408</v>
@@ -1601,37 +1604,37 @@
         <v>2544</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="2">
         <v>15</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T13" s="2">
         <v>100</v>
@@ -1643,13 +1646,13 @@
         <v>644</v>
       </c>
       <c r="W13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="X13" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="Y13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1660,7 +1663,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1">
         <v>440</v>
@@ -1672,34 +1675,34 @@
         <v>2740</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="2">
         <v>15</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T14" s="2">
         <v>390</v>
@@ -1711,13 +1714,13 @@
         <v>2480</v>
       </c>
       <c r="W14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="X14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="X14" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="Y14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1725,25 +1728,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1754,7 +1757,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>449</v>
@@ -1766,10 +1769,10 @@
         <v>3748</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1780,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>7</v>
@@ -1792,10 +1795,10 @@
         <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1806,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>15</v>
@@ -1818,10 +1821,10 @@
         <v>120</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1832,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>55</v>
@@ -1844,10 +1847,10 @@
         <v>258</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1858,7 +1861,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>64</v>
@@ -1870,10 +1873,10 @@
         <v>288</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1884,7 +1887,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>107</v>
@@ -1896,10 +1899,10 @@
         <v>544</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1910,7 +1913,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>170</v>
@@ -1922,10 +1925,10 @@
         <v>884</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1936,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>175</v>
@@ -1948,10 +1951,10 @@
         <v>924</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1962,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>287</v>
@@ -1974,10 +1977,10 @@
         <v>1326</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1988,7 +1991,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
         <v>412</v>
@@ -2000,10 +2003,10 @@
         <v>2136</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2014,7 +2017,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>443</v>
@@ -2026,10 +2029,10 @@
         <v>2272</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2040,7 +2043,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>458</v>
@@ -2052,10 +2055,10 @@
         <v>2358</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2066,7 +2069,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>461</v>
@@ -2078,10 +2081,10 @@
         <v>2356</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2092,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>488</v>
@@ -2104,10 +2107,10 @@
         <v>2724</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2118,7 +2121,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>347</v>
@@ -2130,10 +2133,10 @@
         <v>2406</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2144,7 +2147,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>388</v>
@@ -2156,10 +2159,10 @@
         <v>2686</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2170,7 +2173,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>455</v>
@@ -2182,10 +2185,10 @@
         <v>3516</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2196,7 +2199,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>487</v>
@@ -2208,10 +2211,10 @@
         <v>3930</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2222,7 +2225,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>494</v>
@@ -2234,10 +2237,10 @@
         <v>4094</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2248,7 +2251,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
         <v>515</v>
@@ -2260,10 +2263,10 @@
         <v>4194</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2274,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1">
         <v>42</v>
@@ -2286,10 +2289,10 @@
         <v>432</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2300,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1">
         <v>286</v>
@@ -2312,10 +2315,10 @@
         <v>3880</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2326,7 +2329,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1">
         <v>275</v>
@@ -2338,10 +2341,10 @@
         <v>4050</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2352,7 +2355,7 @@
         <v>13</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1">
         <v>36</v>
@@ -2364,10 +2367,10 @@
         <v>188</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2378,7 +2381,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
@@ -2390,10 +2393,10 @@
         <v>208</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2404,7 +2407,7 @@
         <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="1">
         <v>764</v>
@@ -2416,10 +2419,10 @@
         <v>2822</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2430,7 +2433,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="1">
         <v>805</v>
@@ -2442,10 +2445,10 @@
         <v>3112</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2456,7 +2459,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1">
         <v>251</v>
@@ -2468,10 +2471,10 @@
         <v>1796</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2482,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1">
         <v>364</v>
@@ -2494,10 +2497,10 @@
         <v>2984</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2508,7 +2511,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="1">
         <v>100</v>
@@ -2520,10 +2523,10 @@
         <v>644</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2534,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1">
         <v>236</v>
@@ -2546,10 +2549,10 @@
         <v>1406</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2560,7 +2563,7 @@
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="1">
         <v>239</v>
@@ -2572,10 +2575,10 @@
         <v>1428</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2586,7 +2589,7 @@
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="1">
         <v>250</v>
@@ -2598,10 +2601,10 @@
         <v>1462</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2612,7 +2615,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1">
         <v>258</v>
@@ -2624,10 +2627,10 @@
         <v>1584</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2638,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="1">
         <v>390</v>
@@ -2650,10 +2653,10 @@
         <v>2480</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2664,7 +2667,7 @@
         <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="1">
         <v>397</v>
@@ -2676,10 +2679,10 @@
         <v>2482</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2690,7 +2693,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="1">
         <v>401</v>
@@ -2702,10 +2705,10 @@
         <v>2516</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2716,7 +2719,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="1">
         <v>407</v>
@@ -2728,10 +2731,10 @@
         <v>2534</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
